--- a/trunk/Document/Security Module/Security Module - Challege.xlsx
+++ b/trunk/Document/Security Module/Security Module - Challege.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A4:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
